--- a/Server/src/DemoFiles/student_data.xlsx
+++ b/Server/src/DemoFiles/student_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Web_Development_Projects\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Web_Development_Projects\ERP\Server\src\DemoFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E1A97A-FC95-4D89-8056-BADEBAD4F2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CAD71-EC3A-4E26-8E44-724F668FA27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1CA4EF80-5F38-445E-B288-F44B6BAC0009}"/>
   </bookViews>
@@ -418,6 +418,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
